--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efna4</t>
+  </si>
+  <si>
+    <t>Epha1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna4</t>
-  </si>
-  <si>
-    <t>Epha1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H2">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I2">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J2">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N2">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O2">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P2">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q2">
-        <v>9.028091950169999</v>
+        <v>3.201645713171</v>
       </c>
       <c r="R2">
-        <v>36.11236780068</v>
+        <v>12.806582852684</v>
       </c>
       <c r="S2">
-        <v>0.09648237741068806</v>
+        <v>0.07075082996648266</v>
       </c>
       <c r="T2">
-        <v>0.06136713168809468</v>
+        <v>0.04632380973116403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H3">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I3">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J3">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N3">
         <v>16.215298</v>
       </c>
       <c r="O3">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P3">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q3">
-        <v>10.66821751737867</v>
+        <v>3.216180041015333</v>
       </c>
       <c r="R3">
-        <v>64.009305104272</v>
+        <v>19.29708024609199</v>
       </c>
       <c r="S3">
-        <v>0.1140102465163373</v>
+        <v>0.07107201346088406</v>
       </c>
       <c r="T3">
-        <v>0.1087734672308949</v>
+        <v>0.06980115491929398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H4">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I4">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J4">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N4">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O4">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P4">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q4">
-        <v>4.505638699153334</v>
+        <v>1.185177555392667</v>
       </c>
       <c r="R4">
-        <v>27.03383219492</v>
+        <v>7.111065332356</v>
       </c>
       <c r="S4">
-        <v>0.04815134093087387</v>
+        <v>0.02619037308117033</v>
       </c>
       <c r="T4">
-        <v>0.04593962792736816</v>
+        <v>0.02572205569832378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H5">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I5">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J5">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N5">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O5">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P5">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q5">
-        <v>9.725422321296</v>
+        <v>3.448944289613999</v>
       </c>
       <c r="R5">
-        <v>38.901689285184</v>
+        <v>13.795777158456</v>
       </c>
       <c r="S5">
-        <v>0.1039346821078779</v>
+        <v>0.07621570056752827</v>
       </c>
       <c r="T5">
-        <v>0.06610713267071554</v>
+        <v>0.04990191087920989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H6">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I6">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J6">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N6">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O6">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P6">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q6">
-        <v>5.468917943842666</v>
+        <v>4.865320974253</v>
       </c>
       <c r="R6">
-        <v>32.81350766305599</v>
+        <v>29.191925845518</v>
       </c>
       <c r="S6">
-        <v>0.05844581645803647</v>
+        <v>0.1075151743260203</v>
       </c>
       <c r="T6">
-        <v>0.05576125212894912</v>
+        <v>0.1055926654369487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H7">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I7">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J7">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N7">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O7">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P7">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q7">
-        <v>6.394129819448001</v>
+        <v>0.9235015398909998</v>
       </c>
       <c r="R7">
-        <v>38.364778916688</v>
+        <v>5.541009239345999</v>
       </c>
       <c r="S7">
-        <v>0.06833346955901352</v>
+        <v>0.02040778595639801</v>
       </c>
       <c r="T7">
-        <v>0.0651947402884144</v>
+        <v>0.02004286863050989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.655405</v>
       </c>
       <c r="I8">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J8">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N8">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O8">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P8">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q8">
-        <v>2.5240084190375</v>
+        <v>2.969064329188333</v>
       </c>
       <c r="R8">
-        <v>15.144050514225</v>
+        <v>17.81438597513</v>
       </c>
       <c r="S8">
-        <v>0.02697384278067135</v>
+        <v>0.0656111838514136</v>
       </c>
       <c r="T8">
-        <v>0.02573486588658703</v>
+        <v>0.06443797193070029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.655405</v>
       </c>
       <c r="I9">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J9">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N9">
         <v>16.215298</v>
       </c>
       <c r="O9">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P9">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q9">
-        <v>2.982542820632222</v>
+        <v>2.982542820632221</v>
       </c>
       <c r="R9">
         <v>26.84288538569</v>
       </c>
       <c r="S9">
-        <v>0.03187415720310176</v>
+        <v>0.0659090351884395</v>
       </c>
       <c r="T9">
-        <v>0.04561514469070767</v>
+        <v>0.09709574595705224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.655405</v>
       </c>
       <c r="I10">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J10">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N10">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O10">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P10">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q10">
-        <v>1.259653764336111</v>
+        <v>1.099081134741111</v>
       </c>
       <c r="R10">
-        <v>11.336883879025</v>
+        <v>9.89173021267</v>
       </c>
       <c r="S10">
-        <v>0.01346180240168933</v>
+        <v>0.02428779117050418</v>
       </c>
       <c r="T10">
-        <v>0.01926520160009183</v>
+        <v>0.03578024158003223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>1.655405</v>
       </c>
       <c r="I11">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J11">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N11">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O11">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P11">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q11">
-        <v>2.71896298278</v>
+        <v>3.198398068069999</v>
       </c>
       <c r="R11">
-        <v>16.31377789668</v>
+        <v>19.19038840842</v>
       </c>
       <c r="S11">
-        <v>0.02905730403702084</v>
+        <v>0.07067906262964491</v>
       </c>
       <c r="T11">
-        <v>0.02772262849230946</v>
+        <v>0.06941523055172157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.655405</v>
       </c>
       <c r="I12">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J12">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N12">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O12">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P12">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q12">
-        <v>1.528960383818889</v>
+        <v>4.511883027931666</v>
       </c>
       <c r="R12">
-        <v>13.76064345437</v>
+        <v>40.60694725138499</v>
       </c>
       <c r="S12">
-        <v>0.01633985714941979</v>
+        <v>0.09970480731976068</v>
       </c>
       <c r="T12">
-        <v>0.02338398920940711</v>
+        <v>0.1468829366798919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.655405</v>
       </c>
       <c r="I13">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J13">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N13">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O13">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P13">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q13">
-        <v>1.787624404556666</v>
+        <v>0.8564143961216665</v>
       </c>
       <c r="R13">
-        <v>16.08861964101</v>
+        <v>7.707729565094999</v>
       </c>
       <c r="S13">
-        <v>0.0191041754360671</v>
+        <v>0.01892527617018559</v>
       </c>
       <c r="T13">
-        <v>0.02734000843253862</v>
+        <v>0.02788030202435287</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H14">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I14">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J14">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N14">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O14">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P14">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q14">
-        <v>1.52996850322875</v>
+        <v>2.4323520620055</v>
       </c>
       <c r="R14">
-        <v>6.119874012914999</v>
+        <v>9.729408248021999</v>
       </c>
       <c r="S14">
-        <v>0.01635063082761382</v>
+        <v>0.05375077150155097</v>
       </c>
       <c r="T14">
-        <v>0.0103997366369876</v>
+        <v>0.03519309261984205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H15">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I15">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J15">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N15">
         <v>16.215298</v>
       </c>
       <c r="O15">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P15">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q15">
-        <v>1.807916542861</v>
+        <v>2.443394071480999</v>
       </c>
       <c r="R15">
-        <v>10.847499257166</v>
+        <v>14.660364428886</v>
       </c>
       <c r="S15">
-        <v>0.01932103562725198</v>
+        <v>0.05399478080329086</v>
       </c>
       <c r="T15">
-        <v>0.01843357154189375</v>
+        <v>0.05302928503296331</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H16">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I16">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J16">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N16">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O16">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P16">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q16">
-        <v>0.7635594912725</v>
+        <v>0.900402270883</v>
       </c>
       <c r="R16">
-        <v>4.581356947635</v>
+        <v>5.402413625298</v>
       </c>
       <c r="S16">
-        <v>0.008160089132796118</v>
+        <v>0.01989733208350013</v>
       </c>
       <c r="T16">
-        <v>0.007785275578368211</v>
+        <v>0.01954154232601581</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H17">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I17">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J17">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N17">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O17">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P17">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q17">
-        <v>1.648143363438</v>
+        <v>2.620229565087</v>
       </c>
       <c r="R17">
-        <v>6.592573453751999</v>
+        <v>10.480918260348</v>
       </c>
       <c r="S17">
-        <v>0.0176135545468333</v>
+        <v>0.05790253920662952</v>
       </c>
       <c r="T17">
-        <v>0.0112030129271174</v>
+        <v>0.03791144514389248</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H18">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I18">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J18">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N18">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O18">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P18">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q18">
-        <v>0.9268040519529999</v>
+        <v>3.6962782781865</v>
       </c>
       <c r="R18">
-        <v>5.560824311717999</v>
+        <v>22.177669669119</v>
       </c>
       <c r="S18">
-        <v>0.009904668541241484</v>
+        <v>0.08168135371535684</v>
       </c>
       <c r="T18">
-        <v>0.009449722037476897</v>
+        <v>0.08022078659472878</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H19">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I19">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J19">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N19">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O19">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P19">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q19">
-        <v>1.083597429369</v>
+        <v>0.7016019497654999</v>
       </c>
       <c r="R19">
-        <v>6.501584576214</v>
+        <v>4.209611698592999</v>
       </c>
       <c r="S19">
-        <v>0.01158030475527696</v>
+        <v>0.01550418900123956</v>
       </c>
       <c r="T19">
-        <v>0.01104839203765245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H20">
-        <v>2.971649</v>
-      </c>
-      <c r="I20">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J20">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>4.5741225</v>
-      </c>
-      <c r="N20">
-        <v>9.148244999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.1971611593636388</v>
-      </c>
-      <c r="P20">
-        <v>0.1522216139584879</v>
-      </c>
-      <c r="Q20">
-        <v>4.530895517667499</v>
-      </c>
-      <c r="R20">
-        <v>27.185373106005</v>
-      </c>
-      <c r="S20">
-        <v>0.04842125819683958</v>
-      </c>
-      <c r="T20">
-        <v>0.04619714720990359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H21">
-        <v>2.971649</v>
-      </c>
-      <c r="I21">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J21">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.405099333333333</v>
-      </c>
-      <c r="N21">
-        <v>16.215298</v>
-      </c>
-      <c r="O21">
-        <v>0.2329792547172996</v>
-      </c>
-      <c r="P21">
-        <v>0.2698133721143063</v>
-      </c>
-      <c r="Q21">
-        <v>5.354019342933555</v>
-      </c>
-      <c r="R21">
-        <v>48.186174086402</v>
-      </c>
-      <c r="S21">
-        <v>0.05721790581666732</v>
-      </c>
-      <c r="T21">
-        <v>0.08188461379843405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H22">
-        <v>2.971649</v>
-      </c>
-      <c r="I22">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J22">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.282801666666667</v>
-      </c>
-      <c r="N22">
-        <v>6.848405000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.09839697629375842</v>
-      </c>
-      <c r="P22">
-        <v>0.1139535793085317</v>
-      </c>
-      <c r="Q22">
-        <v>2.261228429982778</v>
-      </c>
-      <c r="R22">
-        <v>20.351055869845</v>
-      </c>
-      <c r="S22">
-        <v>0.02416553752415734</v>
-      </c>
-      <c r="T22">
-        <v>0.03458332980129411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H23">
-        <v>2.971649</v>
-      </c>
-      <c r="I23">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J23">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.927428</v>
-      </c>
-      <c r="N23">
-        <v>9.854856</v>
-      </c>
-      <c r="O23">
-        <v>0.2123898992999982</v>
-      </c>
-      <c r="P23">
-        <v>0.1639792206754944</v>
-      </c>
-      <c r="Q23">
-        <v>4.880862162923999</v>
-      </c>
-      <c r="R23">
-        <v>29.285172977544</v>
-      </c>
-      <c r="S23">
-        <v>0.0521613191239056</v>
-      </c>
-      <c r="T23">
-        <v>0.04976541766911596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H24">
-        <v>2.971649</v>
-      </c>
-      <c r="I24">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J24">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.770851333333333</v>
-      </c>
-      <c r="N24">
-        <v>8.312553999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.1194336752687066</v>
-      </c>
-      <c r="P24">
-        <v>0.1383161891703911</v>
-      </c>
-      <c r="Q24">
-        <v>2.744665864616222</v>
-      </c>
-      <c r="R24">
-        <v>24.70199278154599</v>
-      </c>
-      <c r="S24">
-        <v>0.02933198834014405</v>
-      </c>
-      <c r="T24">
-        <v>0.04197704377487407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H25">
-        <v>2.971649</v>
-      </c>
-      <c r="I25">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J25">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.239614</v>
-      </c>
-      <c r="N25">
-        <v>9.718842</v>
-      </c>
-      <c r="O25">
-        <v>0.1396390350565984</v>
-      </c>
-      <c r="P25">
-        <v>0.1617160247727885</v>
-      </c>
-      <c r="Q25">
-        <v>3.208998567828666</v>
-      </c>
-      <c r="R25">
-        <v>28.880987110458</v>
-      </c>
-      <c r="S25">
-        <v>0.03429426867166244</v>
-      </c>
-      <c r="T25">
-        <v>0.04907856912268898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J26">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>4.5741225</v>
-      </c>
-      <c r="N26">
-        <v>9.148244999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.1971611593636388</v>
-      </c>
-      <c r="P26">
-        <v>0.1522216139584879</v>
-      </c>
-      <c r="Q26">
-        <v>0.8358873433099998</v>
-      </c>
-      <c r="R26">
-        <v>5.015324059859999</v>
-      </c>
-      <c r="S26">
-        <v>0.008933050147825994</v>
-      </c>
-      <c r="T26">
-        <v>0.008522732536915033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H27">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J27">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>5.405099333333333</v>
-      </c>
-      <c r="N27">
-        <v>16.215298</v>
-      </c>
-      <c r="O27">
-        <v>0.2329792547172996</v>
-      </c>
-      <c r="P27">
-        <v>0.2698133721143063</v>
-      </c>
-      <c r="Q27">
-        <v>0.9877422657715553</v>
-      </c>
-      <c r="R27">
-        <v>8.889680391943999</v>
-      </c>
-      <c r="S27">
-        <v>0.01055590955394122</v>
-      </c>
-      <c r="T27">
-        <v>0.01510657485237587</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H28">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J28">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>2.282801666666667</v>
-      </c>
-      <c r="N28">
-        <v>6.848405000000001</v>
-      </c>
-      <c r="O28">
-        <v>0.09839697629375842</v>
-      </c>
-      <c r="P28">
-        <v>0.1139535793085317</v>
-      </c>
-      <c r="Q28">
-        <v>0.4171652640377778</v>
-      </c>
-      <c r="R28">
-        <v>3.75448737634</v>
-      </c>
-      <c r="S28">
-        <v>0.004458206304241764</v>
-      </c>
-      <c r="T28">
-        <v>0.006380144401409408</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H29">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J29">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>4.927428</v>
-      </c>
-      <c r="N29">
-        <v>9.854856</v>
-      </c>
-      <c r="O29">
-        <v>0.2123898992999982</v>
-      </c>
-      <c r="P29">
-        <v>0.1639792206754944</v>
-      </c>
-      <c r="Q29">
-        <v>0.9004513325279998</v>
-      </c>
-      <c r="R29">
-        <v>5.402707995167999</v>
-      </c>
-      <c r="S29">
-        <v>0.009623039484360541</v>
-      </c>
-      <c r="T29">
-        <v>0.009181028916236103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H30">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J30">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.770851333333333</v>
-      </c>
-      <c r="N30">
-        <v>8.312553999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.1194336752687066</v>
-      </c>
-      <c r="P30">
-        <v>0.1383161891703911</v>
-      </c>
-      <c r="Q30">
-        <v>0.506352761590222</v>
-      </c>
-      <c r="R30">
-        <v>4.557174854311999</v>
-      </c>
-      <c r="S30">
-        <v>0.005411344779864813</v>
-      </c>
-      <c r="T30">
-        <v>0.007744182019683907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H31">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J31">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>3.239614</v>
-      </c>
-      <c r="N31">
-        <v>9.718842</v>
-      </c>
-      <c r="O31">
-        <v>0.1396390350565984</v>
-      </c>
-      <c r="P31">
-        <v>0.1617160247727885</v>
-      </c>
-      <c r="Q31">
-        <v>0.5920157013306666</v>
-      </c>
-      <c r="R31">
-        <v>5.328141311975999</v>
-      </c>
-      <c r="S31">
-        <v>0.006326816634578361</v>
-      </c>
-      <c r="T31">
-        <v>0.009054314891494095</v>
+        <v>0.01522695426335646</v>
       </c>
     </row>
   </sheetData>
